--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005" activeTab="1"/>
+    <workbookView windowWidth="22890" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -39,34 +39,55 @@
     <t>唱卡拉OK</t>
   </si>
   <si>
+    <t>10005|-20$10004|-30$10006|15</t>
+  </si>
+  <si>
     <t>后山闲逛</t>
   </si>
   <si>
+    <t>10005|-10$10006|5</t>
+  </si>
+  <si>
     <t>逛街</t>
   </si>
   <si>
-    <t>图书馆学习</t>
+    <t>10005|-10$10004|-10</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>10005|-40$10006|-3$10001|20</t>
   </si>
   <si>
     <t>睡觉</t>
   </si>
   <si>
+    <t>10005|10$10006|2</t>
+  </si>
+  <si>
     <t>图书馆当志愿者</t>
   </si>
   <si>
-    <t>发传单</t>
+    <t>10005|-30$10004|40$10006|-6</t>
   </si>
   <si>
     <t>打游戏</t>
   </si>
   <si>
-    <t>学习</t>
+    <t>10005|-15$10006|4</t>
   </si>
   <si>
     <t>练习乐器</t>
   </si>
   <si>
+    <t>10005|-30$10002|15$10006|-3$10002|20</t>
+  </si>
+  <si>
     <t>打篮球</t>
+  </si>
+  <si>
+    <t>10005|-30$10003|15$10006|3$10003|20</t>
   </si>
 </sst>
 </file>
@@ -79,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,24 +109,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,25 +186,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -157,60 +217,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,16 +239,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +262,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,169 +334,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,17 +456,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +475,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -501,17 +504,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,9 +545,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,156 +558,162 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,134 +1064,173 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>10001</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>10002</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>10003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>10004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>10005</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="D6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>10006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>10007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>10008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>10009</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>10010</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1184,10 +1243,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A34" sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1196,8 +1255,8 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
     <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
-    <col min="7" max="7" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="22.125" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1288,7 +1347,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>10005</v>
@@ -1319,7 +1378,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>10005</v>
@@ -1350,7 +1409,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>10005</v>
@@ -1371,7 +1430,7 @@
         <v>-3</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ref="E16:E19" si="2">_xlfn.TEXTJOIN("|",TRUE,B16:C16)</f>
+        <f t="shared" ref="E16:E20" si="2">_xlfn.TEXTJOIN("|",TRUE,B16:C16)</f>
         <v>10006|-3</v>
       </c>
     </row>
@@ -1393,7 +1452,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>10005</v>
@@ -1414,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,B20:C20)</f>
+        <f t="shared" si="2"/>
         <v>10006|2</v>
       </c>
       <c r="G20" t="str">
@@ -1424,7 +1483,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>10005</v>
@@ -1467,7 +1526,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <v>10005</v>
@@ -1498,7 +1557,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>10005</v>
@@ -1507,7 +1566,7 @@
         <v>-30</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E33" si="4">_xlfn.TEXTJOIN("|",TRUE,B29:C29)</f>
+        <f>_xlfn.TEXTJOIN("|",TRUE,B29:C29)</f>
         <v>10005|-30</v>
       </c>
     </row>
@@ -1519,11 +1578,11 @@
         <v>15</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.TEXTJOIN("|",TRUE,B30:C30)</f>
         <v>10002|15</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:5">
       <c r="B31">
         <v>10006</v>
       </c>
@@ -1531,55 +1590,79 @@
         <v>-3</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.TEXTJOIN("|",TRUE,B31:C31)</f>
         <v>10006|-3</v>
       </c>
-      <c r="G31" t="str">
-        <f>_xlfn.TEXTJOIN("$",TRUE,E29:E31)</f>
-        <v>10005|-30$10002|15$10006|-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33">
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32">
+        <v>10002</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,B32:C32)</f>
+        <v>10002|20</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xlfn.TEXTJOIN("$",TRUE,E29:E32)</f>
+        <v>10005|-30$10002|15$10006|-3$10002|20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
         <v>10005</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>-30</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="4"/>
-        <v>10005|-30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34">
-        <v>10003</v>
-      </c>
-      <c r="C34">
-        <v>15</v>
       </c>
       <c r="E34" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,B34:C34)</f>
-        <v>10003|15</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>10005|-30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
       <c r="B35">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,B35:C35)</f>
+        <v>10003|15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36">
+        <v>10006</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,B36:C36)</f>
         <v>10006|3</v>
       </c>
-      <c r="G35" t="str">
-        <f>_xlfn.TEXTJOIN("$",TRUE,E33:E35)</f>
-        <v>10005|-30$10003|15$10006|3</v>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37">
+        <v>10003</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="E37" t="str">
+        <f>_xlfn.TEXTJOIN("|",TRUE,B37:C37)</f>
+        <v>10003|20</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xlfn.TEXTJOIN("$",TRUE,E34:E37)</f>
+        <v>10005|-30$10003|15$10006|3$10003|20</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -24,18 +24,24 @@
     <t>name</t>
   </si>
   <si>
-    <t>sicializationType</t>
+    <t>socializationType</t>
   </si>
   <si>
     <t>proChange</t>
   </si>
   <si>
+    <t>bigMapId</t>
+  </si>
+  <si>
     <t>玩桌游</t>
   </si>
   <si>
     <t>10005|-20$10004|-20$10006|20</t>
   </si>
   <si>
+    <t>10001</t>
+  </si>
+  <si>
     <t>唱卡拉OK</t>
   </si>
   <si>
@@ -48,18 +54,27 @@
     <t>10005|-10$10006|5</t>
   </si>
   <si>
+    <t>-1</t>
+  </si>
+  <si>
     <t>逛街</t>
   </si>
   <si>
     <t>10005|-10$10004|-10</t>
   </si>
   <si>
+    <t>10005</t>
+  </si>
+  <si>
     <t>学习</t>
   </si>
   <si>
     <t>10005|-40$10006|-3$10001|20</t>
   </si>
   <si>
+    <t>10002</t>
+  </si>
+  <si>
     <t>睡觉</t>
   </si>
   <si>
@@ -78,10 +93,19 @@
     <t>10005|-15$10006|4</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
     <t>练习乐器</t>
   </si>
   <si>
     <t>10005|-30$10002|15$10006|-3$10002|20</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>10010</t>
   </si>
   <si>
     <t>打篮球</t>
@@ -95,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -106,6 +130,105 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,6 +240,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -124,134 +276,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -262,73 +286,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,109 +442,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,17 +480,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,6 +514,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,61 +563,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,13 +1088,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
@@ -1079,7 +1103,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,145 +1116,178 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>10003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>10004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
-        <v>10005</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>10007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>10008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>10009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
-        <v>10010</v>
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +1318,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>10005</v>
@@ -1304,7 +1361,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>10005</v>
@@ -1347,7 +1404,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>10005</v>
@@ -1378,7 +1435,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>10005</v>
@@ -1409,7 +1466,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>10005</v>
@@ -1452,7 +1509,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>10005</v>
@@ -1483,7 +1540,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>10005</v>
@@ -1526,7 +1583,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>10005</v>
@@ -1557,7 +1614,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>10005</v>
@@ -1612,7 +1669,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>10005</v>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,9 @@
     <t>玩桌游</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>10005|-20$10004|-20$10006|20</t>
   </si>
   <si>
@@ -76,6 +79,9 @@
   </si>
   <si>
     <t>睡觉</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>10005|10$10006|2</t>
@@ -120,14 +126,89 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -141,13 +222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,61 +230,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,33 +254,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,6 +275,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -286,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,31 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,16 +511,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,17 +549,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +603,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1097,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1127,14 +1133,14 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1142,16 +1148,16 @@
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1159,16 +1165,16 @@
         <v>10003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1176,33 +1182,33 @@
         <v>10004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1210,16 +1216,16 @@
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1227,16 +1233,16 @@
         <v>10007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="2">
-        <v>3</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1244,16 +1250,16 @@
         <v>10008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1261,33 +1267,33 @@
         <v>10009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1367,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10005</v>
@@ -1404,7 +1410,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>10005</v>
@@ -1435,7 +1441,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>10005</v>
@@ -1466,7 +1472,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>10005</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>10005</v>
@@ -1540,7 +1546,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>10005</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>10005</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>10005</v>
@@ -1669,7 +1675,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>10005</v>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22890" windowHeight="10005"/>
+    <workbookView windowWidth="27225" windowHeight="10815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -33,6 +33,9 @@
     <t>bigMapId</t>
   </si>
   <si>
+    <t>des</t>
+  </si>
+  <si>
     <t>玩桌游</t>
   </si>
   <si>
@@ -45,12 +48,18 @@
     <t>10001</t>
   </si>
   <si>
+    <t>谁是那黑暗中潜藏的凶手？\n谁又手握万能牌坐镇红黄蓝的的王者宝座？\n卧底和神的较量 \n地形和资源的争夺 \n在小小的桌面上续写属于你们自己的史诗。\n智力与演技的拼搏 欢笑和泪水的碰撞。\n月黑风高，与你相约。</t>
+  </si>
+  <si>
     <t>唱卡拉OK</t>
   </si>
   <si>
     <t>10005|-20$10004|-30$10006|15</t>
   </si>
   <si>
+    <t>据说，每一座灯红酒绿的城市，都会有一个狭窄的小包间，里面的人对着屏幕，用麦克风撕扯着喉咙。\n他们的声音很奇怪。\他们管这叫歌唱。\n也不知道他们是在歌唱\还是想在这狂放的音乐声中释放一切</t>
+  </si>
+  <si>
     <t>后山闲逛</t>
   </si>
   <si>
@@ -66,6 +75,9 @@
     <t>10005|-10$10004|-10</t>
   </si>
   <si>
+    <t>这里有寻常巷陌的苍蝇馆子和炸串推车\n这里有雅致不失大气的商场专柜\n琳琅满目的商品\n熙熙攘攘的人流 \n这里的人尽其所能，披上和善而温柔的外皮\n内心却饥渴的盯着你的钱包。\n你\n既是猎人，又是猎物。\n天干物燥，好生走路</t>
+  </si>
+  <si>
     <t>10005</t>
   </si>
   <si>
@@ -78,6 +90,9 @@
     <t>10002</t>
   </si>
   <si>
+    <t>书中自有黄金屋，书中自有颜如玉\n你在这里迈向希望的阶梯，虽然每一次只积跬步。\n学习的过程漫长而痛苦，但每一次都将你磨得更韧。\n苦海泛舟，不进则退。\n一切都会离你而去，包括至爱\n但知识不会</t>
+  </si>
+  <si>
     <t>睡觉</t>
   </si>
   <si>
@@ -93,6 +108,9 @@
     <t>10005|-30$10004|40$10006|-6</t>
   </si>
   <si>
+    <t>提前面对形形色色的人\n提前感受工作后打杂的繁琐 \n培养自己吃苦耐劳的意志\n锻炼嘴皮子的本事\n认识更多同学和老师\n都不是这里的优点\或者都不重要。\n重要的是，你需要钱\n而这里能给你钱\n仅此而已</t>
+  </si>
+  <si>
     <t>打游戏</t>
   </si>
   <si>
@@ -102,6 +120,9 @@
     <t>10003</t>
   </si>
   <si>
+    <t>盾反，卡肉，bug跳\n补刀，走位，回首掏\n军团决斗被斧王吼住又被冰龙大中的人会怎么样\n你又是否拿完所有的草莓和宝箱。\n在文明社会体验最原始的快乐\n烟雾缭绕的阴暗角落\n他们顶着黑眼圈，目光呆滞\n请不要打扰他们\n他们不是呆子\n此刻，他们在扮演英雄。</t>
+  </si>
+  <si>
     <t>练习乐器</t>
   </si>
   <si>
@@ -111,6 +132,9 @@
     <t>10004</t>
   </si>
   <si>
+    <t>你以为你是克莱普顿，佩奇或者是亨德里克斯\n实际上你是噪音制造者，棉花松弛机，烧火棍持有人。\n没有人比你更懂，演奏音乐时悦耳的三分钟，代价是练习时痛苦而难听的无数个小时。\n也不知道值不值得。\手指流血，腰椎疼痛，这一切是如此丑陋，你得到的一切和艺术丝毫无关\n但每一次的折磨,你都离艺术更近一步。</t>
+  </si>
+  <si>
     <t>10010</t>
   </si>
   <si>
@@ -118,6 +142,9 @@
   </si>
   <si>
     <t>10005|-30$10003|15$10006|3$10003|20</t>
+  </si>
+  <si>
+    <t>艾弗森和库里谁的crossover更优雅\n詹姆斯和胖虎谁的身体素质评分更高\n踏上这块场地，就注定要分出胜负\n文学和艺术没有第一，但体育冠军奖杯只有一个。\n体能训练的汗水\n力量训练的疼痛\n意志与身体的双重折磨\n身体的强大，本身就是一种魅力 \n“加一组，我们都不太会打”</t>
   </si>
 </sst>
 </file>
@@ -126,9 +153,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -146,8 +173,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,37 +273,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,82 +303,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -292,43 +319,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,7 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,127 +475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,17 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,11 +552,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,41 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,149 +618,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -745,6 +772,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1094,22 +1124,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="31.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1125,39 +1158,48 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:6">
       <c r="A2" s="2">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:6">
       <c r="A3" s="2">
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1165,50 +1207,56 @@
         <v>10003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:6">
       <c r="A5" s="2">
         <v>10004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="81" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1216,84 +1264,96 @@
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="81" spans="1:6">
       <c r="A8" s="2">
         <v>10007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:6">
       <c r="A9" s="2">
         <v>10008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="135" spans="1:6">
       <c r="A10" s="2">
         <v>10009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="121.5" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>10005</v>
@@ -1367,7 +1427,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>10005</v>
@@ -1410,7 +1470,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>10005</v>
@@ -1441,7 +1501,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>10005</v>
@@ -1472,7 +1532,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>10005</v>
@@ -1515,7 +1575,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>10005</v>
@@ -1546,7 +1606,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>10005</v>
@@ -1589,7 +1649,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>10005</v>
@@ -1620,7 +1680,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>10005</v>
@@ -1675,7 +1735,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>10005</v>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -126,7 +126,7 @@
     <t>练习乐器</t>
   </si>
   <si>
-    <t>10005|-30$10002|15$10006|-3$10002|20</t>
+    <t>10005|-30$10002|15$10006|-3</t>
   </si>
   <si>
     <t>10004</t>
@@ -141,7 +141,7 @@
     <t>打篮球</t>
   </si>
   <si>
-    <t>10005|-30$10003|15$10006|3$10003|20</t>
+    <t>10005|-30$10003|15$10006|3</t>
   </si>
   <si>
     <t>艾弗森和库里谁的crossover更优雅\n詹姆斯和胖虎谁的身体素质评分更高\n踏上这块场地，就注定要分出胜负\n文学和艺术没有第一，但体育冠军奖杯只有一个。\n体能训练的汗水\n力量训练的疼痛\n意志与身体的双重折磨\n身体的强大，本身就是一种魅力 \n“加一组，我们都不太会打”</t>
@@ -152,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -167,7 +167,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,10 +242,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +264,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,14 +294,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -227,43 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -271,44 +309,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,19 +319,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,31 +439,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,127 +499,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,16 +513,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -548,6 +548,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,32 +605,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -618,145 +618,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A1:A34"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1717,20 +1717,10 @@
         <v>10006|-3</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32">
-        <v>10002</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="E32" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,B32:C32)</f>
-        <v>10002|20</v>
-      </c>
+    <row r="32" spans="7:7">
       <c r="G32" t="str">
         <f>_xlfn.TEXTJOIN("$",TRUE,E29:E32)</f>
-        <v>10005|-30$10002|15$10006|-3$10002|20</v>
+        <v>10005|-30$10002|15$10006|-3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1772,20 +1762,10 @@
         <v>10006|3</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37">
-        <v>10003</v>
-      </c>
-      <c r="C37">
-        <v>20</v>
-      </c>
-      <c r="E37" t="str">
-        <f>_xlfn.TEXTJOIN("|",TRUE,B37:C37)</f>
-        <v>10003|20</v>
-      </c>
+    <row r="37" spans="7:7">
       <c r="G37" t="str">
         <f>_xlfn.TEXTJOIN("$",TRUE,E34:E37)</f>
-        <v>10005|-30$10003|15$10006|3$10003|20</v>
+        <v>10005|-30$10003|15$10006|3</v>
       </c>
     </row>
   </sheetData>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27225" windowHeight="10815"/>
+    <workbookView windowWidth="20865" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,8 +154,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -166,6 +166,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -174,9 +212,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,35 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -233,6 +264,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -242,45 +288,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,17 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,31 +319,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,19 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,121 +487,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +510,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,30 +563,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,17 +591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,15 +610,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,8 +1126,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
+++ b/NPCDemo/Assets/Resources/DataTable/ExcelFolder/action.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="20865" windowHeight="11400"/>
+    <workbookView windowWidth="28125" windowHeight="10020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <t>练习乐器</t>
   </si>
   <si>
-    <t>10005|-30$10002|15$10006|-3</t>
+    <t>10005|-30$10002|500$10006|-3</t>
   </si>
   <si>
     <t>10004</t>
@@ -141,7 +141,7 @@
     <t>打篮球</t>
   </si>
   <si>
-    <t>10005|-30$10003|15$10006|3</t>
+    <t>10005|-30$10003|500$10006|3</t>
   </si>
   <si>
     <t>艾弗森和库里谁的crossover更优雅\n詹姆斯和胖虎谁的身体素质评分更高\n踏上这块场地，就注定要分出胜负\n文学和艺术没有第一，但体育冠军奖杯只有一个。\n体能训练的汗水\n力量训练的疼痛\n意志与身体的双重折磨\n身体的强大，本身就是一种魅力 \n“加一组，我们都不太会打”</t>
@@ -152,10 +152,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -163,6 +163,66 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,6 +234,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -182,56 +302,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -239,76 +309,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -319,13 +319,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,157 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,21 +510,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,21 +533,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +580,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,8 +1126,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1368,8 +1368,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1698,11 +1698,11 @@
         <v>10002</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E30" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,B30:C30)</f>
-        <v>10002|15</v>
+        <v>10002|500</v>
       </c>
     </row>
     <row r="31" spans="2:5">
@@ -1720,7 +1720,7 @@
     <row r="32" spans="7:7">
       <c r="G32" t="str">
         <f>_xlfn.TEXTJOIN("$",TRUE,E29:E32)</f>
-        <v>10005|-30$10002|15$10006|-3</v>
+        <v>10005|-30$10002|500$10006|-3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1743,11 +1743,11 @@
         <v>10003</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>500</v>
       </c>
       <c r="E35" t="str">
         <f>_xlfn.TEXTJOIN("|",TRUE,B35:C35)</f>
-        <v>10003|15</v>
+        <v>10003|500</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -1765,7 +1765,7 @@
     <row r="37" spans="7:7">
       <c r="G37" t="str">
         <f>_xlfn.TEXTJOIN("$",TRUE,E34:E37)</f>
-        <v>10005|-30$10003|15$10006|3</v>
+        <v>10005|-30$10003|500$10006|3</v>
       </c>
     </row>
   </sheetData>
